--- a/mbs-perturbation/mega/welm/nearmiss/WELM_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/mega/welm/nearmiss/WELM_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6145833333333334</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6829268292682928</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5688232739904472</v>
+        <v>0.6120507399577167</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5368421052631579</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6716417910447762</v>
+        <v>0.65625</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5405944986690329</v>
+        <v>0.5148148148148148</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6210526315789474</v>
+        <v>0.7011494252873564</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6601272534464475</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6947368421052632</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6133333333333333</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7640374331550803</v>
+        <v>0.7645502645502645</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5578947368421052</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7719999999999999</v>
+        <v>0.5830627705627706</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6050219298245614</v>
+        <v>0.5850307404437316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6175853835605389</v>
+        <v>0.6274399345177909</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5717656022066365</v>
+        <v>0.5310388290571217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6421345194237815</v>
+        <v>0.6269211686664028</v>
       </c>
     </row>
   </sheetData>
